--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Clearance.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Clearance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Clearance Master" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -61,6 +61,9 @@
     <t>wscdemo.eduleadonline.com</t>
   </si>
   <si>
+    <t>User : admission.management.group@gmail.com , Pass : erp@123</t>
+  </si>
+  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -161,6 +164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -187,6 +197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user should have all the following accesses:
 </t>
     </r>
@@ -220,6 +237,9 @@
 2.Student</t>
   </si>
   <si>
+    <t>User : student@gmail.com , Pass :erp@123</t>
+  </si>
+  <si>
     <t>New Student Clearance Application</t>
   </si>
   <si>
@@ -298,6 +318,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -324,6 +351,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user should have all the following accesses:
 </t>
     </r>
@@ -341,6 +375,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -367,6 +408,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -393,6 +441,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -423,12 +478,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +519,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,76 +1052,76 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,10 +1130,10 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,10 +1142,10 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,10 +1154,10 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,10 +1166,10 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,10 +1178,10 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,12 +1190,12 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,9 +1214,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1208,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1221,6 +1281,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1757,19 +1838,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.7142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5714285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7142857142857" style="29" customWidth="1"/>
     <col min="6" max="6" width="10.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1784,11 +1865,11 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -1800,278 +1881,281 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:6">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="6:6">
-      <c r="F12" s="11"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="5:6">
+      <c r="E12" s="29"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="E13" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:7">
-      <c r="A14" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:6">
+      <c r="A14" s="18">
         <v>1</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="19">
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="19">
+      <c r="C15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="19">
+      <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:7">
-      <c r="A18" s="19">
+      <c r="C17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:6">
+      <c r="A18" s="18">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>6</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>7</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>8</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>9</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:6">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="24"/>
-      <c r="B26" s="28" t="s">
+      <c r="E25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="F25" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2087,13 +2171,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.7142857142857" style="1" customWidth="1"/>
@@ -2109,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -2130,366 +2214,366 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:6">
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="6:6">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:6">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A15" s="18">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:6">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A19" s="18">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="B19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A20" s="18">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A21" s="18">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="B21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="18">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13" t="s">
+      <c r="B22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="18">
+        <v>11</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="18">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="6:6">
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:7">
-      <c r="A14" s="19">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="19">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="19">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="19">
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:7">
-      <c r="A18" s="19">
-        <v>5</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A19" s="19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A20" s="19">
-        <v>7</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A21" s="19">
-        <v>8</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A22" s="19">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A23" s="19">
-        <v>10</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="19">
-        <v>11</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="19">
-        <v>12</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="19">
-        <v>13</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
+      <c r="B25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:6">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="28" t="s">
+      <c r="E27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="F27" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="23"/>
+      <c r="B28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" ht="30" spans="2:5">
-      <c r="B30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" ht="30" spans="2:5">
-      <c r="B31" s="28" t="s">
+      <c r="C28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" ht="30" spans="2:6">
+      <c r="B29" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" ht="30" spans="2:5">
-      <c r="B32" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" ht="30" spans="2:5">
-      <c r="B33" s="28" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" ht="30" spans="2:6">
+      <c r="B30" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="21"/>
+      <c r="C30" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" ht="30" spans="2:6">
+      <c r="B31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" ht="30" spans="2:6">
+      <c r="B32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
